--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118012.0054964705</v>
+        <v>20757499.12567271</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118012.0054964705</v>
+        <v>20757499.12567271</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1504.685867422141</v>
+        <v>91353.50816178016</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1504.685867422141</v>
+        <v>91353.50816178016</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958795832.7897267</v>
+        <v>39073547.34274365</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7598.723422359177</v>
+        <v>867145.2983560381</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14517.99125317641</v>
+        <v>1652448.335426585</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21474.8846949269</v>
+        <v>2437751.372497133</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28629.30705490836</v>
+        <v>3223567.595625337</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35676.30411431385</v>
+        <v>4009318.778273518</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42788.76570256262</v>
+        <v>4795069.960921698</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49830.9334421702</v>
+        <v>5580821.143569876</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>56924.33460706662</v>
+        <v>6366572.326218055</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>63992.46435278015</v>
+        <v>7152368.896646293</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>71031.36782498819</v>
+        <v>7938154.56459384</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>78206.32793119879</v>
+        <v>8723940.232541392</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>85217.05010321748</v>
+        <v>9509336.238035908</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>92299.28252434808</v>
+        <v>10294786.07498152</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99288.77312547933</v>
+        <v>11080235.91192714</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>106342.540390767</v>
+        <v>11865685.74887275</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27049,16 +27049,16 @@
         <v>387</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>382</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>305</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
